--- a/COVID_19_Datathon-master/Test Data/Chennai.xlsx
+++ b/COVID_19_Datathon-master/Test Data/Chennai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Omusoru\Documents\GitHub\Datathon2020\COVID_19_Datathon-master\test_dataa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dswhi\OneDrive\Documents\UW Class Work\Dubstech\Datathon 3\Datathon2020\COVID_19_Datathon-master\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{436E3CC1-022C-4B33-8B80-C4E8F04A098F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C0F8B8-F369-4D16-A798-312BED58E01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15EB725D-182A-46DA-9C48-D30A7C5E1529}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15EB725D-182A-46DA-9C48-D30A7C5E1529}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -868,12 +868,12 @@
   <dimension ref="A1:EZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:156" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32</v>
       </c>
